--- a/docs/StructureDefinition-ServiceRequestRevisarLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestRevisarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="564">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T11:18:06-03:00</t>
+    <t>2023-01-20T14:40:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1108,7 +1108,7 @@
     <t>ServiceRequest.priority</t>
   </si>
   <si>
-    <t>Prioridad Recomendada Interconsulta de Origen</t>
+    <t>Pertinencia Interconsulta</t>
   </si>
   <si>
     <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
@@ -1171,17 +1171,14 @@
     <t>ServiceRequest.doNotPerform.extension</t>
   </si>
   <si>
-    <t>ServiceRequest.doNotPerform.extension:MotivoNoPertinenciaCodigo</t>
-  </si>
-  <si>
-    <t>MotivoNoPertinenciaCodigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/MotivoNoPertinenciaLE}
+    <t>ServiceRequest.doNotPerform.extension:PertinenciaInterconsulta</t>
+  </si>
+  <si>
+    <t>PertinenciaInterconsulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/PertinenciaInterconsulta}
 </t>
-  </si>
-  <si>
-    <t>Motivo No Pertinencia</t>
   </si>
   <si>
     <t>ServiceRequest.doNotPerform.value</t>
@@ -2091,9 +2088,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.47265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.1328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.37890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -6360,7 +6357,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
@@ -7201,10 +7198,10 @@
         <v>376</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7287,10 +7284,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7316,10 +7313,10 @@
         <v>336</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7370,7 +7367,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7402,14 +7399,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7431,13 +7428,13 @@
         <v>182</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7466,11 +7463,11 @@
         <v>287</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Z46" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7487,7 +7484,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7502,31 +7499,31 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>393</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7548,13 +7545,13 @@
         <v>182</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7583,11 +7580,11 @@
         <v>287</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7604,7 +7601,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7613,7 +7610,7 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>98</v>
@@ -7622,24 +7619,24 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7662,17 +7659,17 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7721,7 +7718,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7739,10 +7736,10 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7753,10 +7750,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7779,13 +7776,13 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7836,7 +7833,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>86</v>
@@ -7851,31 +7848,31 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>417</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7894,13 +7891,13 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7951,7 +7948,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7966,31 +7963,31 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8009,13 +8006,13 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8066,7 +8063,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -8081,27 +8078,27 @@
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8124,13 +8121,13 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8160,11 +8157,11 @@
         <v>287</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
       </c>
@@ -8181,7 +8178,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8202,25 +8199,25 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>445</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8239,13 +8236,13 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8296,7 +8293,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8311,31 +8308,31 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8354,16 +8351,16 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8413,7 +8410,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8428,31 +8425,31 @@
         <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>466</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8474,13 +8471,13 @@
         <v>182</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8509,11 +8506,11 @@
         <v>287</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8530,7 +8527,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8545,16 +8542,16 @@
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
@@ -8562,14 +8559,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8588,16 +8585,16 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8647,7 +8644,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8662,16 +8659,16 @@
         <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AM56" t="s" s="2">
-        <v>486</v>
-      </c>
       <c r="AN56" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8679,10 +8676,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8708,10 +8705,10 @@
         <v>182</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8741,11 +8738,11 @@
         <v>287</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Z57" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>491</v>
-      </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8762,7 +8759,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8783,10 +8780,10 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8794,10 +8791,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8820,13 +8817,13 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8877,7 +8874,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8898,10 +8895,10 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
@@ -8909,10 +8906,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8938,13 +8935,13 @@
         <v>182</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8973,11 +8970,11 @@
         <v>287</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>502</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8994,7 +8991,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -9009,16 +9006,16 @@
         <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -9026,10 +9023,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9052,16 +9049,16 @@
         <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9111,7 +9108,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -9126,16 +9123,16 @@
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AM60" t="s" s="2">
-        <v>514</v>
-      </c>
       <c r="AN60" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -9143,10 +9140,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9169,13 +9166,13 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9226,7 +9223,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9241,13 +9238,13 @@
         <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9258,14 +9255,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9284,16 +9281,16 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9343,7 +9340,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9358,13 +9355,13 @@
         <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9375,10 +9372,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9401,16 +9398,16 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9460,7 +9457,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9478,10 +9475,10 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9492,14 +9489,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9521,16 +9518,16 @@
         <v>182</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9558,11 +9555,11 @@
         <v>287</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9579,7 +9576,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9597,24 +9594,24 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>547</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9637,13 +9634,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>47</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9694,7 +9691,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9709,27 +9706,27 @@
         <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>553</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9755,10 +9752,10 @@
         <v>161</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9809,7 +9806,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9827,10 +9824,10 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9841,10 +9838,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9867,16 +9864,16 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9926,7 +9923,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9941,13 +9938,13 @@
         <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
